--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/7_Ankara_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/7_Ankara_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E91D5E-9A8A-4736-9A6D-2F65032303DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{832E0F9A-9D50-4F53-BADC-17A7D50DACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{6A4CC4BD-44A1-492C-A30D-9AEFEF444076}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{54382943-1268-4D09-9814-70A2D60DCDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -801,15 +801,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E41EC48A-E580-4B86-BE1F-F8747C827B4A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A2B78527-E332-417D-BDAB-9D20532F8285}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{3D94E344-18E4-4E44-8A88-E7DF47B9475E}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{72A1B25D-336B-44E1-B93A-968A4C3ABB51}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{FBE5430D-D3E4-4085-8B8F-C030996510B4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5832AE7D-BDA2-4787-966D-7FC7A8E117AA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7886D28E-B206-4AA5-8FE3-EA96DD4FD788}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6F7834F8-8891-4E89-BAB0-B1D6C44498CE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{435C34CE-6733-40BB-8EDB-0F49C5948601}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F35A5872-A440-44E8-A37E-6B195F9E88DC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{33839C47-F2A9-432D-8942-BD76BB33C275}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{03A8CFA5-D5C5-418C-9185-228AFDD96FFC}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{ECE121EB-2E2D-454A-A680-E501507FBB61}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{30629B8F-44F5-4A9A-992B-5930D7A597AB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C5061CB4-4A52-4536-A7AF-532CF96BF6F6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D262E025-6EA4-4407-8972-ED272C1F0CFC}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{33A1D667-9D7F-4AB9-849D-E03FAF7A5C38}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5E5601CA-F2B2-4C3B-B508-9D630C013760}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E1C825-AFFE-4235-8E3A-32DFF4897BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57E6FE5-F0D8-425A-8D29-EA655F07E8A8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2498,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD66BD6C-AA6C-414E-BBB5-0FBB364838E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314E51B-FB68-4E60-9622-3062BC882217}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3827,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC4337D-9168-4FE3-8482-6DDEE017615A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F955BCA-E584-43B1-B98C-FFF27D140265}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5154,7 +5154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C123F-3F19-4474-A92E-3064DBC9C870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5CFDBF-B7F8-4A77-9AF6-9681E0272005}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6477,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F107FC-22DE-400E-9E58-8E8E4F75B04D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DDEBA5-EAF0-4538-B22E-E80221017C25}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7798,7 +7798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB401540-62AF-4B8C-93B5-0018D5A81B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73E57F-66C0-4C87-BEA7-D187074BA9DC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
